--- a/test input2.xlsx
+++ b/test input2.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Metricas_Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafico1" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafico2" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafico3" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafico4" sheetId="5" r:id="rId5"/>
+    <sheet name="Grafico5" sheetId="6" r:id="rId6"/>
+    <sheet name="Grafico6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -121,6 +127,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Volumen de trafico de voz cursado &amp; Tasa de caidas de voz &amp; Tasa de fallos de accesibilidad de voz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -130,11 +154,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metricas_Datos'!$B$1</c:f>
+              <c:f>'Metricas_Datos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cosa1</c:v>
+                  <c:v>cosa2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -188,45 +212,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metricas_Datos'!$B$2:$B$14</c:f>
+              <c:f>'Metricas_Datos'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>57.14285714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>64.28571429</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>71.42857143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>78.57142857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>85.71428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,11 +261,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metricas_Datos'!$C$1</c:f>
+              <c:f>'Metricas_Datos'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cosa2</c:v>
+                  <c:v>Cosa4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -295,45 +319,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metricas_Datos'!$C$2:$C$14</c:f>
+              <c:f>'Metricas_Datos'!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>122.6666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>94.66666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>90.66666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>66.66666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>69.33333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.14285714</c:v>
+                  <c:v>40.38095238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.28571429</c:v>
+                  <c:v>28.76190476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.42857143</c:v>
+                  <c:v>17.14285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.57142857</c:v>
+                  <c:v>5.523809524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.71428571</c:v>
+                  <c:v>-6.095238095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,12 +368,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metricas_Datos'!$D$1</c:f>
+              <c:f>'Metricas_Datos'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cosa3</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -402,367 +423,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Metricas_Datos'!$D$2:$D$14</c:f>
+              <c:f>'Metricas_Datos'!$O$2:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cosa4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1-Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Jan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Jan</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Jan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Jan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Jan</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Jan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Jan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Jan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Jan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Jan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metricas_Datos'!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>122.6666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.66666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.66666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66.66666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.33333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.38095238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.76190476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.14285714</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.523809524</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.095238095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cosa5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1-Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Jan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Jan</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Jan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Jan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Jan</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Jan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Jan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Jan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Jan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Jan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metricas_Datos'!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>167.1666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128.1666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>118.6666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.16666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86.33333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46.38095238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.26190476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.14285714</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.976190476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-22.0952381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cosa6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1-Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Jan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Jan</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Jan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Jan</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Jan</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Jan</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Jan</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Jan</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Jan</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Jan</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Jan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Metricas_Datos'!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>211.6666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>161.6666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.6666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111.6666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.3333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52.38095238</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.76190476</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.142857143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-15.47619048</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-38.0952381</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -799,38 +463,1275 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Volumen de trafico de datos &amp; Tasa de fallos de accesibilidad &amp; Tasa de caidas de datos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosa5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>167.1666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.1666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.6666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.16666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.33333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.38095238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.26190476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.14285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.976190476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22.0952381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosa6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>211.6666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.6666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.6666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.6666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.3333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.38095238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.76190476</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15.47619048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-38.0952381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020003"/>
+        <c:axId val="50020004"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020003"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="50020003"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50020004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa de Accesibilidad HSDPA &amp; Tasa Accesibilidad HSUPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa de llamadas de voz originadas en 3G y que terminan en 2G</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Volumen de SHO y Tasa de exito de SHO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$Q$2:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050003"/>
+        <c:axId val="50050004"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50050004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050003"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="50050003"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50050004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Volumen de IFHO y Tasa de Fallos de IFHO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$R$2:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Metricas_Datos'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1-Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2-Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3-Jan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4-Jan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5-Jan</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-Jan</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7-Jan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8-Jan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9-Jan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10-Jan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Jan</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Jan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Metricas_Datos'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50060003"/>
+        <c:axId val="50060004"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50060004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060003"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="50060003"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50060004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -843,7 +1744,142 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308969" cy="6078325"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1439,6 +2475,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test input2.xlsx
+++ b/test input2.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Metricas_Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafico1" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafico2" sheetId="3" r:id="rId3"/>
-    <sheet name="Grafico3" sheetId="4" r:id="rId4"/>
-    <sheet name="Grafico4" sheetId="5" r:id="rId5"/>
-    <sheet name="Grafico5" sheetId="6" r:id="rId6"/>
-    <sheet name="Grafico6" sheetId="7" r:id="rId7"/>
+    <sheet name="Helper Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafico1" sheetId="3" r:id="rId3"/>
+    <sheet name="Grafico2" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafico3" sheetId="5" r:id="rId5"/>
+    <sheet name="Grafico4" sheetId="6" r:id="rId6"/>
+    <sheet name="Grafico5" sheetId="7" r:id="rId7"/>
+    <sheet name="Grafico6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Fecha</t>
   </si>
@@ -77,6 +78,12 @@
   </si>
   <si>
     <t>12-Jan</t>
+  </si>
+  <si>
+    <t>ANR Execution</t>
+  </si>
+  <si>
+    <t>ANR avg</t>
   </si>
 </sst>
 </file>
@@ -2476,4 +2483,346 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGEIF($D:$D,$D2,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGEIF($D:$D,$D3,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGEIF($D:$D,$D4,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>AVERAGEIF($D:$D,$D5,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGEIF($D:$D,$D6,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGEIF($D:$D,$D7,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGEIF($D:$D,$D8,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>AVERAGEIF($D:$D,$D9,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>AVERAGEIF($D:$D,$D10,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGEIF($D:$D,$D11,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGEIF($D:$D,$D12,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGEIF($D:$D,$D13,Metricas_Datos!G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>